--- a/file/downloadExcel/student-attendances.xlsx
+++ b/file/downloadExcel/student-attendances.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Accounting</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>2022-03-04 15:23:18</t>
@@ -536,13 +539,13 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5">
